--- a/AI项目跟进/更新AI课0907.xlsx
+++ b/AI项目跟进/更新AI课0907.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/WorkSpace/ AI课项目进度跟进/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/kayla/mac_pos/AI项目跟进/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="860" windowWidth="19360" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="580" windowWidth="22340" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="中控开发" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -597,6 +597,10 @@
   </si>
   <si>
     <t>redis集群部署</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1180,9 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,40 +1196,70 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,59 +1295,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1324,23 +1343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1617,9 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D50" sqref="D50"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1634,12 +1638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>89</v>
@@ -1649,10 +1653,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>90</v>
@@ -1662,10 +1666,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="13" t="s">
@@ -1673,10 +1677,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
@@ -1710,13 +1714,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="68">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -1734,9 +1738,9 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="29" t="s">
         <v>17</v>
       </c>
@@ -1752,9 +1756,9 @@
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="34" t="s">
         <v>18</v>
       </c>
@@ -1770,11 +1774,11 @@
       <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="46">
+      <c r="A9" s="79">
         <v>2</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1792,9 +1796,9 @@
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
@@ -1810,9 +1814,9 @@
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1828,11 +1832,11 @@
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66">
+      <c r="A12" s="75">
         <v>3</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1850,9 +1854,9 @@
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="29" t="s">
         <v>17</v>
       </c>
@@ -1868,9 +1872,9 @@
       <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="34" t="s">
         <v>18</v>
       </c>
@@ -1887,11 +1891,11 @@
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="45">
+      <c r="A15" s="77">
         <v>4</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="70" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1906,15 +1910,15 @@
       <c r="G15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="60" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="21" t="s">
         <v>27</v>
       </c>
@@ -1927,13 +1931,13 @@
       <c r="G16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="60"/>
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1946,13 +1950,13 @@
       <c r="G17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="60"/>
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="21" t="s">
         <v>29</v>
       </c>
@@ -1965,15 +1969,15 @@
       <c r="G18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="60"/>
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="46">
+      <c r="A19" s="79">
         <v>5</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1988,15 +1992,15 @@
       <c r="G19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="60" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="70"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2009,13 +2013,13 @@
       <c r="G20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="60"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="70"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
@@ -2028,13 +2032,13 @@
       <c r="G21" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="60"/>
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="21" t="s">
         <v>26</v>
       </c>
@@ -2047,15 +2051,15 @@
       <c r="G22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="60"/>
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66">
+      <c r="A23" s="75">
         <v>6</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="34" t="s">
@@ -2065,18 +2069,18 @@
         <v>16</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2086,18 +2090,18 @@
       <c r="F24" s="36">
         <v>43355</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="66">
+      <c r="A25" s="75">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="62" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="34" t="s">
@@ -2107,85 +2111,85 @@
         <v>81</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="57" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="67">
+      <c r="A27" s="76">
         <v>2</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="31">
         <v>43344</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="49" t="s">
+      <c r="G27" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="82" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="34" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="31">
         <v>43348</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="34" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="31">
         <v>43353</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67">
+      <c r="A30" s="76">
         <v>3</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="52" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="29" t="s">
@@ -2200,14 +2204,14 @@
       <c r="G30" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="29" t="s">
         <v>107</v>
       </c>
@@ -2220,12 +2224,12 @@
       <c r="G31" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="53"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="29" t="s">
         <v>108</v>
       </c>
@@ -2238,30 +2242,30 @@
       <c r="G32" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="55"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="41" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>43340</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="84"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="34" t="s">
         <v>110</v>
       </c>
@@ -2271,21 +2275,21 @@
       <c r="F34" s="36">
         <v>43353</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="76">
         <v>1</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="34" t="s">
@@ -2295,39 +2299,39 @@
         <v>48</v>
       </c>
       <c r="F35" s="34"/>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="57" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="46">
+      <c r="A38" s="79">
         <v>2</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="67"/>
+      <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="29" t="s">
@@ -2339,63 +2343,63 @@
       <c r="F38" s="31">
         <v>43348</v>
       </c>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="49"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="34" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="31">
         <v>43353</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="40" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="31">
         <v>43350</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="40" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="31">
         <v>43353</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="34" t="s">
         <v>99</v>
       </c>
@@ -2405,13 +2409,13 @@
       <c r="F42" s="36">
         <v>43355</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="53"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="34" t="s">
         <v>100</v>
       </c>
@@ -2421,13 +2425,13 @@
       <c r="F43" s="36">
         <v>43357</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="47"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="34" t="s">
         <v>101</v>
       </c>
@@ -2437,17 +2441,17 @@
       <c r="F44" s="36">
         <v>43360</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="57">
+      <c r="A45" s="66">
         <v>1</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -2457,45 +2461,45 @@
         <v>56</v>
       </c>
       <c r="F45" s="19"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="19"/>
       <c r="E46" s="7"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="53"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="19"/>
       <c r="E47" s="7"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="53"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="19"/>
       <c r="E48" s="7"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="57">
+      <c r="A49" s="66">
         <v>2</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="52" t="s">
+      <c r="B49" s="67"/>
+      <c r="C49" s="44" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -2505,67 +2509,67 @@
         <v>56</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="19"/>
       <c r="E50" s="7"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="19"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="19"/>
       <c r="E52" s="7"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="19"/>
       <c r="E53" s="7"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="58"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="19"/>
       <c r="E54" s="7"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="59">
+      <c r="A55" s="68">
         <v>15</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="19"/>
@@ -2573,41 +2577,78 @@
         <v>20</v>
       </c>
       <c r="F55" s="19"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="60"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="19"/>
       <c r="E56" s="7"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="60"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="19"/>
       <c r="E57" s="7"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="61"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="73"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="19"/>
       <c r="E58" s="7"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B6:B24"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G44"/>
     <mergeCell ref="H45:H48"/>
     <mergeCell ref="H49:H54"/>
     <mergeCell ref="H55:H58"/>
@@ -2624,43 +2665,6 @@
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="G49:G54"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B6:B24"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H30:H33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,10 +2692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
@@ -2703,8 +2707,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -2716,8 +2720,8 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2727,8 +2731,8 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2761,356 +2765,387 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="87">
+      <c r="A6" s="92">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="86">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="62" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="86">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="53"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="73"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="53"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="73"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="F36:F42"/>
     <mergeCell ref="G6:G9"/>
@@ -3127,37 +3162,6 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3185,11 +3189,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
@@ -3201,9 +3205,9 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -3215,9 +3219,9 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3227,9 +3231,9 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3265,254 +3269,254 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="46">
+      <c r="A6" s="79">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="62" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="66">
+      <c r="A10" s="75">
         <v>2</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="66">
+      <c r="A12" s="75">
         <v>3</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="52" t="s">
+      <c r="G12" s="62"/>
+      <c r="H12" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="73"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="66">
+      <c r="A14" s="75">
         <v>1</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="45">
+      <c r="A17" s="77">
         <v>2</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="46">
+      <c r="A20" s="79">
         <v>3</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="74"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="74"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
@@ -3521,6 +3525,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H25:H26"/>
@@ -3537,26 +3561,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3584,10 +3588,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
@@ -3599,8 +3603,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -3612,8 +3616,8 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3623,8 +3627,8 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3657,348 +3661,379 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="87">
+      <c r="A6" s="92">
         <v>1</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="86">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="86">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="53"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="73"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="53"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="73"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="F36:F42"/>
     <mergeCell ref="G6:G9"/>
@@ -4015,37 +4050,6 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/AI项目跟进/更新AI课0907.xlsx
+++ b/AI项目跟进/更新AI课0907.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="580" windowWidth="22340" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="7040" yWindow="1720" windowWidth="22340" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="中控开发" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
   <si>
     <r>
       <rPr>
@@ -307,25 +307,7 @@
     <t>ELK</t>
   </si>
   <si>
-    <t>已完成功能流程图和UX设计方案</t>
-  </si>
-  <si>
-    <t>已完成数据库的设计</t>
-  </si>
-  <si>
-    <t>后台框架已搭建完毕</t>
-  </si>
-  <si>
     <t>用户行为日志</t>
-  </si>
-  <si>
-    <t>已完成动态获取数据</t>
-  </si>
-  <si>
-    <t>目前正在确定前后端分离方案</t>
-  </si>
-  <si>
-    <t>ff</t>
   </si>
   <si>
     <r>
@@ -353,7 +335,7 @@
   </si>
   <si>
     <t>初版完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>服务器使用待定</t>
@@ -366,7 +348,7 @@
     <rPh sb="5" eb="6">
       <t>dai'ding</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>任务需求未知</t>
@@ -379,58 +361,58 @@
     <rPh sb="4" eb="5">
       <t>wei'zhi</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>郑邵镭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>张罗/Ace/郑邵镭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>负责人</t>
     <rPh sb="0" eb="1">
       <t>fu'ze'r</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Ace</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>柯岳</t>
@@ -440,68 +422,68 @@
     <rPh sb="1" eb="2">
       <t>yue</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>负责人</t>
     <rPh sb="0" eb="1">
       <t>fu'z'r</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>柯岳</t>
     <rPh sb="0" eb="1">
       <t>ke'y</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>陈成</t>
     <rPh sb="0" eb="1">
       <t>chen'ch</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>如意词汇乐园修复bug</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>周克琼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>藏头诗技能优化调试并提交审核</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>周克琼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>每日一句技能优化调试并提交审核</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>接入古诗名句新技能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>古诗名句新技能优化调试并提交审核</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>讨论功能需求和程序板块</t>
@@ -523,15 +505,15 @@
     <rPh sb="9" eb="10">
       <t>ban'kuai</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>田刘云/张罗</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>实现服务基本功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>讨论程序存在问题</t>
@@ -547,7 +529,7 @@
     <rPh sb="6" eb="7">
       <t>wen'ti</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>完善服务功能</t>
@@ -560,7 +542,7 @@
     <rPh sb="4" eb="5">
       <t>gong'n</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>增添功能需求</t>
@@ -573,35 +555,287 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>增加需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ongoing</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>redis服务搭建</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>redis操作命令</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>刘廷伟</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>redis集群部署</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议定制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立根</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES环境搭建与测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本服务框架开发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据预处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘珍琼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立根</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口上线</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>badcase修复与接口维护</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东数据预处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘珍琼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口上线</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>badcase修复与接口维护</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器日志分析</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘廷伟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建es搜索引擎库</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>logstash收集日志设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建kibana服务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端索引建立设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架结构改进</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域使用数据分析</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用数据分析</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐领域使用分析</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>有声领域使用分析</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时显示晓乐使用信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图显示晓乐使用位置</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP使用数据接口设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立根</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launcher用户操作数据接口设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP数据分析处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launcher数据分析处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月18日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月22日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月25日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月28日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月3日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>r</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月20日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月13日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月15日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月17日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月20日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月25日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月27日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月15日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要其他部门的数据</t>
+  </si>
+  <si>
+    <t>需要其他部门的数据</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -611,7 +845,15 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -705,6 +947,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1061,13 +1309,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,16 +1324,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,19 +1348,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,28 +1372,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1154,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,16 +1447,160 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,116 +1627,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1621,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G35" sqref="G35:G37"/>
     </sheetView>
@@ -1638,49 +1952,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
@@ -1714,13 +2028,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="78">
+      <c r="A6" s="88">
         <v>1</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="89" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -1733,14 +2047,14 @@
         <v>43341</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="29" t="s">
         <v>17</v>
       </c>
@@ -1751,14 +2065,14 @@
         <v>43344</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="34" t="s">
         <v>18</v>
       </c>
@@ -1769,16 +2083,16 @@
         <v>43353</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="79">
+      <c r="A9" s="66">
         <v>2</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="89" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -1791,14 +2105,14 @@
         <v>43341</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
@@ -1809,14 +2123,14 @@
         <v>43344</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1827,16 +2141,16 @@
         <v>43353</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75">
+      <c r="A12" s="86">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="61" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1849,14 +2163,14 @@
         <v>43341</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="29" t="s">
         <v>17</v>
       </c>
@@ -1867,14 +2181,14 @@
         <v>43344</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="34" t="s">
         <v>18</v>
       </c>
@@ -1885,17 +2199,17 @@
         <v>43353</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" s="37"/>
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="77">
+      <c r="A15" s="65">
         <v>4</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1910,15 +2224,15 @@
       <c r="G15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>76</v>
+      <c r="H15" s="105" t="s">
+        <v>70</v>
       </c>
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="21" t="s">
         <v>27</v>
       </c>
@@ -1931,13 +2245,13 @@
       <c r="G16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="105"/>
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1950,13 +2264,13 @@
       <c r="G17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="105"/>
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="21" t="s">
         <v>29</v>
       </c>
@@ -1969,15 +2283,15 @@
       <c r="G18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="105"/>
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="79">
+      <c r="A19" s="66">
         <v>5</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1992,15 +2306,15 @@
       <c r="G19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="105" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2013,13 +2327,13 @@
       <c r="G20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="105"/>
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
@@ -2032,18 +2346,18 @@
       <c r="G21" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="105"/>
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F22" s="25">
         <v>43342</v>
@@ -2051,15 +2365,15 @@
       <c r="G22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="60"/>
+      <c r="H22" s="105"/>
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="75">
+      <c r="A23" s="86">
         <v>6</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="91" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="34" t="s">
@@ -2069,18 +2383,18 @@
         <v>16</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="57" t="s">
+      <c r="G23" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="69" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="61"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="34" t="s">
         <v>38</v>
       </c>
@@ -2090,54 +2404,54 @@
       <c r="F24" s="36">
         <v>43355</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="75">
+      <c r="A25" s="86">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="94" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>77</v>
+      <c r="G25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="76">
+      <c r="A27" s="87">
         <v>2</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>43</v>
@@ -2145,114 +2459,114 @@
       <c r="F27" s="31">
         <v>43344</v>
       </c>
-      <c r="G27" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>77</v>
+      <c r="G27" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F28" s="31">
         <v>43348</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F29" s="31">
         <v>43353</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76">
+      <c r="A30" s="87">
         <v>3</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="72" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F30" s="31">
         <v>43330</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="82" t="s">
         <v>76</v>
       </c>
+      <c r="H30" s="74" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F31" s="31">
         <v>43334</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="83"/>
+        <v>76</v>
+      </c>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F32" s="31">
         <v>43335</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="83"/>
+        <v>76</v>
+      </c>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F33" s="42">
         <v>43340</v>
@@ -2260,36 +2574,36 @@
       <c r="G33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="84"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="34" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F34" s="36">
         <v>43353</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="76">
+      <c r="A35" s="87">
         <v>1</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="72" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="34" t="s">
@@ -2299,39 +2613,39 @@
         <v>48</v>
       </c>
       <c r="F35" s="34"/>
-      <c r="G35" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>78</v>
+      <c r="G35" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="79">
+      <c r="A38" s="66">
         <v>2</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="44" t="s">
+      <c r="B38" s="78"/>
+      <c r="C38" s="72" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="29" t="s">
@@ -2343,15 +2657,15 @@
       <c r="F38" s="31">
         <v>43348</v>
       </c>
-      <c r="G38" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="57"/>
+      <c r="G38" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="29" t="s">
         <v>52</v>
       </c>
@@ -2361,97 +2675,97 @@
       <c r="F39" s="31">
         <v>43353</v>
       </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="93" t="s">
-        <v>95</v>
+      <c r="A40" s="67"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F40" s="31">
         <v>43350</v>
       </c>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="80"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="93" t="s">
-        <v>97</v>
+      <c r="A41" s="67"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F41" s="31">
         <v>43353</v>
       </c>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="80"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F42" s="36">
         <v>43355</v>
       </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F43" s="36">
         <v>43357</v>
       </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
     </row>
     <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="80"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F44" s="36">
         <v>43360</v>
       </c>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="66">
+      <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="72" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -2461,45 +2775,45 @@
         <v>56</v>
       </c>
       <c r="F45" s="19"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="19"/>
       <c r="E46" s="7"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="19"/>
       <c r="E47" s="7"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="19"/>
       <c r="E48" s="7"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="66">
+      <c r="A49" s="77">
         <v>2</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="44" t="s">
+      <c r="B49" s="78"/>
+      <c r="C49" s="72" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -2509,67 +2823,67 @@
         <v>56</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="19"/>
       <c r="E50" s="7"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="19"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="19"/>
       <c r="E52" s="7"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="19"/>
       <c r="E53" s="7"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="67"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="19"/>
       <c r="E54" s="7"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="68">
+      <c r="A55" s="79">
         <v>15</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="72" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="19"/>
@@ -2577,49 +2891,70 @@
         <v>20</v>
       </c>
       <c r="F55" s="19"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="19"/>
       <c r="E56" s="7"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="19"/>
       <c r="E57" s="7"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="46"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="19"/>
       <c r="E58" s="7"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="A55:A58"/>
@@ -2636,48 +2971,27 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G49:G54"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="H30:H33"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2692,14 +3006,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -2707,12 +3021,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>2</v>
@@ -2720,8 +3034,8 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2731,8 +3045,8 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2765,416 +3079,530 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92">
+      <c r="A6" s="106">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="49">
+        <v>43332</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="49">
+        <v>43342</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="49">
+        <v>43337</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="107">
+        <v>2</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="49">
+        <v>43335</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="91">
-        <v>2</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="49">
+        <v>43338</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="51">
+        <v>43342</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="91">
+      <c r="A12" s="107"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="94"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="107">
         <v>3</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B14" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="49">
+        <v>43341</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="49">
+        <v>43342</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="49">
+        <v>43343</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="49">
+        <v>43346</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="73"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="68"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="9"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="9"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="9"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="44"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="F41" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="72"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="78"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="78"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="78"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="78"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="85"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
+  <mergeCells count="44">
+    <mergeCell ref="G15:G18"/>
     <mergeCell ref="A1:B4"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3189,15 +3617,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>1</v>
@@ -3205,13 +3633,13 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>2</v>
@@ -3219,9 +3647,9 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3231,9 +3659,9 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3269,300 +3697,282 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="79">
+      <c r="A6" s="107">
         <v>1</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="62" t="s">
+      <c r="C6" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="94"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="94"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="114"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="114"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="107">
         <v>2</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="B12" s="107" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="75">
-        <v>2</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="75">
-        <v>3</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="44" t="s">
-        <v>70</v>
-      </c>
+      <c r="C12" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="94"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="75">
-        <v>1</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>72</v>
-      </c>
+      <c r="A14" s="114"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="94"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="94"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77">
-        <v>2</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="79">
-        <v>3</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
-        <v>74</v>
+      <c r="A16" s="114"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="94"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="114"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="114"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="114"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="94"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="115" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B12:B22"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -3588,14 +3998,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86"/>
+      <c r="A1" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="109"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -3603,12 +4013,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>2</v>
@@ -3616,8 +4026,8 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3627,8 +4037,8 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3661,356 +4071,371 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92">
+      <c r="A6" s="106">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="91">
+      <c r="A10" s="107">
         <v>2</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="91">
+      <c r="A12" s="107">
         <v>3</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="68"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="44"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="45"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B6:B9"/>
@@ -4027,31 +4452,16 @@
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>